--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H2">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I2">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J2">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.2304331394294</v>
+        <v>23.92603766666666</v>
       </c>
       <c r="N2">
-        <v>21.2304331394294</v>
+        <v>71.77811299999999</v>
       </c>
       <c r="O2">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="P2">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="Q2">
-        <v>8.96302885734573</v>
+        <v>13.78817674000555</v>
       </c>
       <c r="R2">
-        <v>8.96302885734573</v>
+        <v>124.09359066005</v>
       </c>
       <c r="S2">
-        <v>0.0008875574716302951</v>
+        <v>0.001220343924975205</v>
       </c>
       <c r="T2">
-        <v>0.0008875574716302951</v>
+        <v>0.001220343924975205</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H3">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I3">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J3">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.943033876702589</v>
+        <v>9.093559666666666</v>
       </c>
       <c r="N3">
-        <v>8.943033876702589</v>
+        <v>27.280679</v>
       </c>
       <c r="O3">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="P3">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="Q3">
-        <v>3.775555127993969</v>
+        <v>5.240466876572222</v>
       </c>
       <c r="R3">
-        <v>3.775555127993969</v>
+        <v>47.16420188915001</v>
       </c>
       <c r="S3">
-        <v>0.0003738716249537412</v>
+        <v>0.0004638156325849451</v>
       </c>
       <c r="T3">
-        <v>0.0003738716249537412</v>
+        <v>0.0004638156325849451</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H4">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I4">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J4">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.1409037148841</v>
+        <v>93.71576166666667</v>
       </c>
       <c r="N4">
-        <v>83.1409037148841</v>
+        <v>281.147285</v>
       </c>
       <c r="O4">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="P4">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="Q4">
-        <v>35.10028807835888</v>
+        <v>54.00683151913889</v>
       </c>
       <c r="R4">
-        <v>35.10028807835888</v>
+        <v>486.0614836722501</v>
       </c>
       <c r="S4">
-        <v>0.003475780725038172</v>
+        <v>0.004779958220314635</v>
       </c>
       <c r="T4">
-        <v>0.003475780725038172</v>
+        <v>0.004779958220314635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H5">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I5">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J5">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.0555014134716</v>
+        <v>86.782706</v>
       </c>
       <c r="N5">
-        <v>84.0555014134716</v>
+        <v>260.348118</v>
       </c>
       <c r="O5">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="P5">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="Q5">
-        <v>35.48641140949701</v>
+        <v>50.01142708936667</v>
       </c>
       <c r="R5">
-        <v>35.48641140949701</v>
+        <v>450.1028438043001</v>
       </c>
       <c r="S5">
-        <v>0.003514016309568456</v>
+        <v>0.004426338766805252</v>
       </c>
       <c r="T5">
-        <v>0.003514016309568456</v>
+        <v>0.004426338766805251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H6">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I6">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J6">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.7722314565467</v>
+        <v>15.04680066666666</v>
       </c>
       <c r="N6">
-        <v>13.7722314565467</v>
+        <v>45.14040199999999</v>
       </c>
       <c r="O6">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="P6">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="Q6">
-        <v>5.814337708721395</v>
+        <v>8.671220444188888</v>
       </c>
       <c r="R6">
-        <v>5.814337708721395</v>
+        <v>78.0409839977</v>
       </c>
       <c r="S6">
-        <v>0.0005757606003608994</v>
+        <v>0.0007674597875210041</v>
       </c>
       <c r="T6">
-        <v>0.0005757606003608994</v>
+        <v>0.0007674597875210041</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.422178332325189</v>
+        <v>0.5762833333333334</v>
       </c>
       <c r="H7">
-        <v>0.422178332325189</v>
+        <v>1.72885</v>
       </c>
       <c r="I7">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="J7">
-        <v>0.009055882989651137</v>
+        <v>0.01195547268444015</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.47521355943555</v>
+        <v>5.833883666666668</v>
       </c>
       <c r="N7">
-        <v>5.47521355943555</v>
+        <v>17.501651</v>
       </c>
       <c r="O7">
-        <v>0.02527597345958964</v>
+        <v>0.02488871499211982</v>
       </c>
       <c r="P7">
-        <v>0.02527597345958964</v>
+        <v>0.02488871499211982</v>
       </c>
       <c r="Q7">
-        <v>2.311516529646763</v>
+        <v>3.361969925705556</v>
       </c>
       <c r="R7">
-        <v>2.311516529646763</v>
+        <v>30.25772933135001</v>
       </c>
       <c r="S7">
-        <v>0.0002288962580995714</v>
+        <v>0.0002975563522391044</v>
       </c>
       <c r="T7">
-        <v>0.0002288962580995714</v>
+        <v>0.0002975563522391044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H8">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I8">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J8">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.2304331394294</v>
+        <v>23.92603766666666</v>
       </c>
       <c r="N8">
-        <v>21.2304331394294</v>
+        <v>71.77811299999999</v>
       </c>
       <c r="O8">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="P8">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="Q8">
-        <v>698.421536371426</v>
+        <v>799.9386133508683</v>
       </c>
       <c r="R8">
-        <v>698.421536371426</v>
+        <v>7199.447520157815</v>
       </c>
       <c r="S8">
-        <v>0.06916068918443045</v>
+        <v>0.07079980519276609</v>
       </c>
       <c r="T8">
-        <v>0.06916068918443045</v>
+        <v>0.0707998051927661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H9">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I9">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J9">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.943033876702589</v>
+        <v>9.093559666666666</v>
       </c>
       <c r="N9">
-        <v>8.943033876702589</v>
+        <v>27.280679</v>
       </c>
       <c r="O9">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="P9">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="Q9">
-        <v>294.2006608611379</v>
+        <v>304.0323521813697</v>
       </c>
       <c r="R9">
-        <v>294.2006608611379</v>
+        <v>2736.291169632328</v>
       </c>
       <c r="S9">
-        <v>0.02913300836824487</v>
+        <v>0.02690885393889339</v>
       </c>
       <c r="T9">
-        <v>0.02913300836824487</v>
+        <v>0.0269088539388934</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H10">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I10">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J10">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.1409037148841</v>
+        <v>93.71576166666667</v>
       </c>
       <c r="N10">
-        <v>83.1409037148841</v>
+        <v>281.147285</v>
       </c>
       <c r="O10">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="P10">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="Q10">
-        <v>2735.101885416304</v>
+        <v>3133.275032045791</v>
       </c>
       <c r="R10">
-        <v>2735.101885416304</v>
+        <v>28199.47528841212</v>
       </c>
       <c r="S10">
-        <v>0.2708414926146109</v>
+        <v>0.2773153566808742</v>
       </c>
       <c r="T10">
-        <v>0.2708414926146109</v>
+        <v>0.2773153566808742</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H11">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I11">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J11">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.0555014134716</v>
+        <v>86.782706</v>
       </c>
       <c r="N11">
-        <v>84.0555014134716</v>
+        <v>260.348118</v>
       </c>
       <c r="O11">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="P11">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="Q11">
-        <v>2765.18957725067</v>
+        <v>2901.476561544997</v>
       </c>
       <c r="R11">
-        <v>2765.18957725067</v>
+        <v>26113.28905390498</v>
       </c>
       <c r="S11">
-        <v>0.2738209046099003</v>
+        <v>0.2567996742503287</v>
       </c>
       <c r="T11">
-        <v>0.2738209046099003</v>
+        <v>0.2567996742503287</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H12">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I12">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J12">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.7722314565467</v>
+        <v>15.04680066666666</v>
       </c>
       <c r="N12">
-        <v>13.7722314565467</v>
+        <v>45.14040199999999</v>
       </c>
       <c r="O12">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="P12">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="Q12">
-        <v>453.0676783640387</v>
+        <v>503.071884628407</v>
       </c>
       <c r="R12">
-        <v>453.0676783640387</v>
+        <v>4527.646961655663</v>
       </c>
       <c r="S12">
-        <v>0.04486470025772927</v>
+        <v>0.04452515584971075</v>
       </c>
       <c r="T12">
-        <v>0.04486470025772927</v>
+        <v>0.04452515584971076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>32.8971873434984</v>
+        <v>33.43381066666667</v>
       </c>
       <c r="H13">
-        <v>32.8971873434984</v>
+        <v>100.301432</v>
       </c>
       <c r="I13">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057035</v>
       </c>
       <c r="J13">
-        <v>0.7056569616696527</v>
+        <v>0.6936119562057036</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.47521355943555</v>
+        <v>5.833883666666668</v>
       </c>
       <c r="N13">
-        <v>5.47521355943555</v>
+        <v>17.501651</v>
       </c>
       <c r="O13">
-        <v>0.02527597345958964</v>
+        <v>0.02488871499211982</v>
       </c>
       <c r="P13">
-        <v>0.02527597345958964</v>
+        <v>0.02488871499211982</v>
       </c>
       <c r="Q13">
-        <v>180.119126210414</v>
+        <v>195.0489619626925</v>
       </c>
       <c r="R13">
-        <v>180.119126210414</v>
+        <v>1755.440657664232</v>
       </c>
       <c r="S13">
-        <v>0.01783616663473681</v>
+        <v>0.01726311029313045</v>
       </c>
       <c r="T13">
-        <v>0.01783616663473681</v>
+        <v>0.01726311029313045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>13.2998687828863</v>
+        <v>0.02516433333333333</v>
       </c>
       <c r="H14">
-        <v>13.2998687828863</v>
+        <v>0.075493</v>
       </c>
       <c r="I14">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="J14">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.2304331394294</v>
+        <v>23.92603766666666</v>
       </c>
       <c r="N14">
-        <v>21.2304331394294</v>
+        <v>71.77811299999999</v>
       </c>
       <c r="O14">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="P14">
-        <v>0.09800893768664815</v>
+        <v>0.1020740841609269</v>
       </c>
       <c r="Q14">
-        <v>282.3619749582519</v>
+        <v>0.6020827871898888</v>
       </c>
       <c r="R14">
-        <v>282.3619749582519</v>
+        <v>5.418745084708999</v>
       </c>
       <c r="S14">
-        <v>0.02796069103058739</v>
+        <v>5.328826903904514E-05</v>
       </c>
       <c r="T14">
-        <v>0.02796069103058739</v>
+        <v>5.328826903904514E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>13.2998687828863</v>
+        <v>0.02516433333333333</v>
       </c>
       <c r="H15">
-        <v>13.2998687828863</v>
+        <v>0.075493</v>
       </c>
       <c r="I15">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="J15">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.943033876702589</v>
+        <v>9.093559666666666</v>
       </c>
       <c r="N15">
-        <v>8.943033876702589</v>
+        <v>27.280679</v>
       </c>
       <c r="O15">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="P15">
-        <v>0.04128494431531342</v>
+        <v>0.03879525676877616</v>
       </c>
       <c r="Q15">
-        <v>118.9411770810514</v>
+        <v>0.2288333666385555</v>
       </c>
       <c r="R15">
-        <v>118.9411770810514</v>
+        <v>2.059500299747</v>
       </c>
       <c r="S15">
-        <v>0.01177806432211481</v>
+        <v>2.025325132355916E-05</v>
       </c>
       <c r="T15">
-        <v>0.01177806432211481</v>
+        <v>2.025325132355916E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>13.2998687828863</v>
+        <v>0.02516433333333333</v>
       </c>
       <c r="H16">
-        <v>13.2998687828863</v>
+        <v>0.075493</v>
       </c>
       <c r="I16">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="J16">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>83.1409037148841</v>
+        <v>93.71576166666667</v>
       </c>
       <c r="N16">
-        <v>83.1409037148841</v>
+        <v>281.147285</v>
       </c>
       <c r="O16">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="P16">
-        <v>0.3838146682118372</v>
+        <v>0.3998134031568383</v>
       </c>
       <c r="Q16">
-        <v>1105.763109898543</v>
+        <v>2.358294665167222</v>
       </c>
       <c r="R16">
-        <v>1105.763109898543</v>
+        <v>21.224651986505</v>
       </c>
       <c r="S16">
-        <v>0.1094973948721881</v>
+        <v>0.0002087245197247955</v>
       </c>
       <c r="T16">
-        <v>0.1094973948721881</v>
+        <v>0.0002087245197247955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>13.2998687828863</v>
+        <v>0.02516433333333333</v>
       </c>
       <c r="H17">
-        <v>13.2998687828863</v>
+        <v>0.075493</v>
       </c>
       <c r="I17">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="J17">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>84.0555014134716</v>
+        <v>86.782706</v>
       </c>
       <c r="N17">
-        <v>84.0555014134716</v>
+        <v>260.348118</v>
       </c>
       <c r="O17">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="P17">
-        <v>0.3880368500326469</v>
+        <v>0.3702353628030166</v>
       </c>
       <c r="Q17">
-        <v>1117.927139278886</v>
+        <v>2.183828941352667</v>
       </c>
       <c r="R17">
-        <v>1117.927139278886</v>
+        <v>19.654460472174</v>
       </c>
       <c r="S17">
-        <v>0.1107019291131781</v>
+        <v>0.0001932831607845845</v>
       </c>
       <c r="T17">
-        <v>0.1107019291131781</v>
+        <v>0.0001932831607845845</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>13.2998687828863</v>
+        <v>0.02516433333333333</v>
       </c>
       <c r="H18">
-        <v>13.2998687828863</v>
+        <v>0.075493</v>
       </c>
       <c r="I18">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="J18">
-        <v>0.2852871553406961</v>
+        <v>0.0005220548337718367</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.7722314565467</v>
+        <v>15.04680066666666</v>
       </c>
       <c r="N18">
-        <v>13.7722314565467</v>
+        <v>45.14040199999999</v>
       </c>
       <c r="O18">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="P18">
-        <v>0.06357862629396448</v>
+        <v>0.06419317811832238</v>
       </c>
       <c r="Q18">
-        <v>183.1688712196102</v>
+        <v>0.3786427075762221</v>
       </c>
       <c r="R18">
-        <v>183.1688712196102</v>
+        <v>3.407784368186</v>
       </c>
       <c r="S18">
-        <v>0.01813816543587431</v>
+        <v>3.351235893184669E-05</v>
       </c>
       <c r="T18">
-        <v>0.01813816543587431</v>
+        <v>3.351235893184669E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,433 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.02516433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.075493</v>
+      </c>
+      <c r="I19">
+        <v>0.0005220548337718367</v>
+      </c>
+      <c r="J19">
+        <v>0.0005220548337718367</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N19">
+        <v>17.501651</v>
+      </c>
+      <c r="O19">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P19">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q19">
+        <v>0.1468057932158889</v>
+      </c>
+      <c r="R19">
+        <v>1.321252138943</v>
+      </c>
+      <c r="S19">
+        <v>1.299327396800573E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.299327396800573E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H20">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J20">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>23.92603766666666</v>
+      </c>
+      <c r="N20">
+        <v>71.77811299999999</v>
+      </c>
+      <c r="O20">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="P20">
+        <v>0.1020740841609269</v>
+      </c>
+      <c r="Q20">
+        <v>338.9652798450354</v>
+      </c>
+      <c r="R20">
+        <v>3050.687518605319</v>
+      </c>
+      <c r="S20">
+        <v>0.0300006467741465</v>
+      </c>
+      <c r="T20">
+        <v>0.03000064677414651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H21">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J21">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>9.093559666666666</v>
+      </c>
+      <c r="N21">
+        <v>27.280679</v>
+      </c>
+      <c r="O21">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="P21">
+        <v>0.03879525676877616</v>
+      </c>
+      <c r="Q21">
+        <v>128.8303997570622</v>
+      </c>
+      <c r="R21">
+        <v>1159.47359781356</v>
+      </c>
+      <c r="S21">
+        <v>0.01140233394597426</v>
+      </c>
+      <c r="T21">
+        <v>0.01140233394597426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>13.2998687828863</v>
-      </c>
-      <c r="H19">
-        <v>13.2998687828863</v>
-      </c>
-      <c r="I19">
-        <v>0.2852871553406961</v>
-      </c>
-      <c r="J19">
-        <v>0.2852871553406961</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>5.47521355943555</v>
-      </c>
-      <c r="N19">
-        <v>5.47521355943555</v>
-      </c>
-      <c r="O19">
-        <v>0.02527597345958964</v>
-      </c>
-      <c r="P19">
-        <v>0.02527597345958964</v>
-      </c>
-      <c r="Q19">
-        <v>72.81962189877265</v>
-      </c>
-      <c r="R19">
-        <v>72.81962189877265</v>
-      </c>
-      <c r="S19">
-        <v>0.007210910566753261</v>
-      </c>
-      <c r="T19">
-        <v>0.007210910566753261</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H22">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J22">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>93.71576166666667</v>
+      </c>
+      <c r="N22">
+        <v>281.147285</v>
+      </c>
+      <c r="O22">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="P22">
+        <v>0.3998134031568383</v>
+      </c>
+      <c r="Q22">
+        <v>1327.691188227489</v>
+      </c>
+      <c r="R22">
+        <v>11949.2206940474</v>
+      </c>
+      <c r="S22">
+        <v>0.1175093637359246</v>
+      </c>
+      <c r="T22">
+        <v>0.1175093637359246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H23">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J23">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>86.782706</v>
+      </c>
+      <c r="N23">
+        <v>260.348118</v>
+      </c>
+      <c r="O23">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="P23">
+        <v>0.3702353628030166</v>
+      </c>
+      <c r="Q23">
+        <v>1229.469109545947</v>
+      </c>
+      <c r="R23">
+        <v>11065.22198591352</v>
+      </c>
+      <c r="S23">
+        <v>0.108816066625098</v>
+      </c>
+      <c r="T23">
+        <v>0.108816066625098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H24">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J24">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.04680066666666</v>
+      </c>
+      <c r="N24">
+        <v>45.14040199999999</v>
+      </c>
+      <c r="O24">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="P24">
+        <v>0.06419317811832238</v>
+      </c>
+      <c r="Q24">
+        <v>213.1712350288088</v>
+      </c>
+      <c r="R24">
+        <v>1918.541115259279</v>
+      </c>
+      <c r="S24">
+        <v>0.01886705012215878</v>
+      </c>
+      <c r="T24">
+        <v>0.01886705012215878</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.16721333333333</v>
+      </c>
+      <c r="H25">
+        <v>42.50163999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="J25">
+        <v>0.2939105162760844</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.833883666666668</v>
+      </c>
+      <c r="N25">
+        <v>17.501651</v>
+      </c>
+      <c r="O25">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="P25">
+        <v>0.02488871499211982</v>
+      </c>
+      <c r="Q25">
+        <v>82.64987446751556</v>
+      </c>
+      <c r="R25">
+        <v>743.8488702076401</v>
+      </c>
+      <c r="S25">
+        <v>0.007315055072782257</v>
+      </c>
+      <c r="T25">
+        <v>0.007315055072782259</v>
       </c>
     </row>
   </sheetData>
